--- a/DigitalWebsites/TestData/ErrorMessageSheet.xlsx
+++ b/DigitalWebsites/TestData/ErrorMessageSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="AccountLookupPage" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="Forgot_Password" sheetId="7" r:id="rId7"/>
     <sheet name="Reset_Password" sheetId="8" r:id="rId8"/>
     <sheet name="Set_Pin_PW_in_Security_Info" sheetId="9" r:id="rId9"/>
+    <sheet name="Store_Locator" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="106">
   <si>
     <t>The month you've entered is incorrect. Please enter valid format.</t>
   </si>
@@ -335,6 +336,12 @@
   </si>
   <si>
     <t>Error_Invalid_Domain_Email</t>
+  </si>
+  <si>
+    <t>Invalid_Zip_error_msg</t>
+  </si>
+  <si>
+    <t>Please enter a valid 5-digit Zip Code or both City and State separated by a comma. Ex: Jacksonville, FL</t>
   </si>
 </sst>
 </file>
@@ -406,7 +413,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -430,6 +437,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -792,6 +800,41 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="93.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
@@ -1505,7 +1548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>

--- a/DigitalWebsites/TestData/ErrorMessageSheet.xlsx
+++ b/DigitalWebsites/TestData/ErrorMessageSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14730" windowHeight="5985" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AccountLookupPage" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,13 @@
     <sheet name="Set_Pin_PW_in_Security_Info" sheetId="9" r:id="rId9"/>
     <sheet name="Store_Locator" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:B17"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="108">
   <si>
     <t>The month you've entered is incorrect. Please enter valid format.</t>
   </si>
@@ -342,6 +343,12 @@
   </si>
   <si>
     <t>Please enter a valid 5-digit Zip Code or both City and State separated by a comma. Ex: Jacksonville, FL</t>
+  </si>
+  <si>
+    <t>Invalid_PhoneNumberformat_ErrMsg</t>
+  </si>
+  <si>
+    <t>Error : Please provide a valid cell number to receive exclusive offers.</t>
   </si>
 </sst>
 </file>
@@ -804,7 +811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -960,10 +967,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,6 +1081,14 @@
       </c>
       <c r="B13" s="7" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/DigitalWebsites/TestData/ErrorMessageSheet.xlsx
+++ b/DigitalWebsites/TestData/ErrorMessageSheet.xlsx
@@ -19,12 +19,11 @@
     <sheet name="Store_Locator" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:B17"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="107">
   <si>
     <t>The month you've entered is incorrect. Please enter valid format.</t>
   </si>
@@ -50,31 +49,7 @@
     <t>Please choose from the drop down</t>
   </si>
   <si>
-    <t>Please enter your first name</t>
-  </si>
-  <si>
-    <t>Please enter your last name</t>
-  </si>
-  <si>
-    <t>Please enter your address</t>
-  </si>
-  <si>
-    <t>Please enter your city</t>
-  </si>
-  <si>
-    <t>Sorry, your birthday is required. Date must be in the format of MM/DD/YYYY.</t>
-  </si>
-  <si>
-    <t>Please select a state.</t>
-  </si>
-  <si>
-    <t>Please enter a valid zip code or postal code</t>
-  </si>
-  <si>
     <t>This is not a valid phone number. Please provide your phone number.</t>
-  </si>
-  <si>
-    <t>Your phone number is required. Please enter a valid phone number.</t>
   </si>
   <si>
     <t>ErrorMessage</t>
@@ -282,15 +257,9 @@
     <t>Empty_Offers_selection</t>
   </si>
   <si>
-    <t>Please make a selection to receive exclusive offers.</t>
-  </si>
-  <si>
     <t>Error_landline_primaryphone</t>
   </si>
   <si>
-    <t>Please provide a valid cell number to receive exclusive offers.</t>
-  </si>
-  <si>
     <t>Empty_code_email</t>
   </si>
   <si>
@@ -349,6 +318,33 @@
   </si>
   <si>
     <t>Error : Please provide a valid cell number to receive exclusive offers.</t>
+  </si>
+  <si>
+    <t>Error: Please enter your first name</t>
+  </si>
+  <si>
+    <t>Error: Please enter your last name</t>
+  </si>
+  <si>
+    <t>Error : Sorry, your birthday is required. Date must be in the format of MM/DD/YYYY.</t>
+  </si>
+  <si>
+    <t>Error : Your phone number is required. Please enter a valid phone number.</t>
+  </si>
+  <si>
+    <t>Error : Please enter your address</t>
+  </si>
+  <si>
+    <t>Error : Please enter your city</t>
+  </si>
+  <si>
+    <t>Error : Please select a state.</t>
+  </si>
+  <si>
+    <t>Error : Please enter a valid zip code or postal code</t>
+  </si>
+  <si>
+    <t>Error : Please make a selection to receive exclusive offers.</t>
   </si>
 </sst>
 </file>
@@ -420,7 +416,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -445,6 +441,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -764,23 +769,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -788,7 +793,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -796,10 +801,10 @@
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -823,18 +828,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -858,15 +863,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -874,7 +879,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -882,7 +887,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -890,7 +895,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -898,7 +903,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -906,58 +911,58 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -970,7 +975,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:B14"/>
+      <selection sqref="A1:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,115 +985,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>17</v>
+      <c r="A1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>85</v>
+      <c r="A12" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>87</v>
+      <c r="A13" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>107</v>
+      <c r="A14" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1112,194 +1117,194 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1323,42 +1328,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1382,90 +1387,90 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1489,26 +1494,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1532,26 +1537,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1575,114 +1580,114 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
